--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ptprz1</t>
+  </si>
+  <si>
+    <t>L1cam</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ptprz1</t>
-  </si>
-  <si>
-    <t>L1cam</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="H2">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="I2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="J2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="N2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="O2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="P2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="Q2">
-        <v>0.7243848060972222</v>
+        <v>0.2888294938993333</v>
       </c>
       <c r="R2">
-        <v>6.519463254875</v>
+        <v>2.599465445094</v>
       </c>
       <c r="S2">
-        <v>0.04189784306509414</v>
+        <v>0.02524969821710906</v>
       </c>
       <c r="T2">
-        <v>0.04189784306509414</v>
+        <v>0.02524969821710906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="H3">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="I3">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="J3">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.488444</v>
       </c>
       <c r="O3">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="P3">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="Q3">
-        <v>0.01608744585555556</v>
+        <v>0.008747597867555554</v>
       </c>
       <c r="R3">
-        <v>0.1447870127</v>
+        <v>0.078728380808</v>
       </c>
       <c r="S3">
-        <v>0.0009304851179937667</v>
+        <v>0.0007647217855022329</v>
       </c>
       <c r="T3">
-        <v>0.0009304851179937668</v>
+        <v>0.000764721785502233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="H4">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="I4">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="J4">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="N4">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="O4">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="P4">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="Q4">
-        <v>0.731435505275</v>
+        <v>0.5369588672513332</v>
       </c>
       <c r="R4">
-        <v>6.582919547475</v>
+        <v>4.832629805261999</v>
       </c>
       <c r="S4">
-        <v>0.04230564991742349</v>
+        <v>0.04694136035090073</v>
       </c>
       <c r="T4">
-        <v>0.04230564991742349</v>
+        <v>0.04694136035090073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="H5">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="I5">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="J5">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="N5">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="O5">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="P5">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="Q5">
-        <v>0.1595747337388889</v>
+        <v>0.0416994131291111</v>
       </c>
       <c r="R5">
-        <v>1.43617260365</v>
+        <v>0.3752947181619999</v>
       </c>
       <c r="S5">
-        <v>0.009229676126653624</v>
+        <v>0.003645395015328941</v>
       </c>
       <c r="T5">
-        <v>0.009229676126653626</v>
+        <v>0.003645395015328943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="H6">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="I6">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="J6">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="N6">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="O6">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="P6">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="Q6">
-        <v>0.6305813124638889</v>
+        <v>0.3504415462177777</v>
       </c>
       <c r="R6">
-        <v>5.675231812174999</v>
+        <v>3.15397391596</v>
       </c>
       <c r="S6">
-        <v>0.03647232333838761</v>
+        <v>0.03063587158387631</v>
       </c>
       <c r="T6">
-        <v>0.03647232333838761</v>
+        <v>0.03063587158387632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="H7">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="I7">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="J7">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="N7">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="O7">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="P7">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="Q7">
-        <v>0.3938864529522222</v>
+        <v>2.404544690739333</v>
       </c>
       <c r="R7">
-        <v>3.54497807657</v>
+        <v>21.640902216654</v>
       </c>
       <c r="S7">
-        <v>0.02278208025948554</v>
+        <v>0.2102071605328535</v>
       </c>
       <c r="T7">
-        <v>0.02278208025948554</v>
+        <v>0.2102071605328535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="H8">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="I8">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="J8">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.488444</v>
       </c>
       <c r="O8">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="P8">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="Q8">
-        <v>0.008747597867555554</v>
+        <v>0.07282493808088888</v>
       </c>
       <c r="R8">
-        <v>0.078728380808</v>
+        <v>0.6554244427279999</v>
       </c>
       <c r="S8">
-        <v>0.0005059541276493928</v>
+        <v>0.006366412530788782</v>
       </c>
       <c r="T8">
-        <v>0.000505954127649393</v>
+        <v>0.006366412530788781</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="H9">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="I9">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="J9">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="N9">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="O9">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="P9">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="Q9">
-        <v>0.397720292186</v>
+        <v>4.470255360571333</v>
       </c>
       <c r="R9">
-        <v>3.579482629674</v>
+        <v>40.23229824514199</v>
       </c>
       <c r="S9">
-        <v>0.02300382648221355</v>
+        <v>0.3907931883410081</v>
       </c>
       <c r="T9">
-        <v>0.02300382648221356</v>
+        <v>0.390793188341008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="H10">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="I10">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="J10">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="N10">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="O10">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="P10">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="Q10">
-        <v>0.08676924933288888</v>
+        <v>0.3471532671157777</v>
       </c>
       <c r="R10">
-        <v>0.7809232439959999</v>
+        <v>3.124379404042</v>
       </c>
       <c r="S10">
-        <v>0.005018664611440614</v>
+        <v>0.03034840767616312</v>
       </c>
       <c r="T10">
-        <v>0.005018664611440617</v>
+        <v>0.03034840767616313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="H11">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="I11">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="J11">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="N11">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="O11">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="P11">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="Q11">
-        <v>0.3428805165068889</v>
+        <v>2.917473378484444</v>
       </c>
       <c r="R11">
-        <v>3.085924648562</v>
+        <v>26.25726040636</v>
       </c>
       <c r="S11">
-        <v>0.01983193732083323</v>
+        <v>0.2550477839664693</v>
       </c>
       <c r="T11">
-        <v>0.01983193732083324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.602672</v>
-      </c>
-      <c r="H12">
-        <v>1.808016</v>
-      </c>
-      <c r="I12">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="J12">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>7.331211666666667</v>
-      </c>
-      <c r="N12">
-        <v>21.993635</v>
-      </c>
-      <c r="O12">
-        <v>0.3202318188366965</v>
-      </c>
-      <c r="P12">
-        <v>0.3202318188366965</v>
-      </c>
-      <c r="Q12">
-        <v>4.418315997573334</v>
-      </c>
-      <c r="R12">
-        <v>39.76484397816</v>
-      </c>
-      <c r="S12">
-        <v>0.2555518955121168</v>
-      </c>
-      <c r="T12">
-        <v>0.2555518955121168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.602672</v>
-      </c>
-      <c r="H13">
-        <v>1.808016</v>
-      </c>
-      <c r="I13">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="J13">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.1628146666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.488444</v>
-      </c>
-      <c r="O13">
-        <v>0.007111844427711534</v>
-      </c>
-      <c r="P13">
-        <v>0.007111844427711535</v>
-      </c>
-      <c r="Q13">
-        <v>0.09812384078933332</v>
-      </c>
-      <c r="R13">
-        <v>0.8831145671039999</v>
-      </c>
-      <c r="S13">
-        <v>0.005675405182068374</v>
-      </c>
-      <c r="T13">
-        <v>0.005675405182068375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.602672</v>
-      </c>
-      <c r="H14">
-        <v>1.808016</v>
-      </c>
-      <c r="I14">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="J14">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>7.402569</v>
-      </c>
-      <c r="N14">
-        <v>22.207707</v>
-      </c>
-      <c r="O14">
-        <v>0.3233487508909935</v>
-      </c>
-      <c r="P14">
-        <v>0.3233487508909935</v>
-      </c>
-      <c r="Q14">
-        <v>4.461321064368</v>
-      </c>
-      <c r="R14">
-        <v>40.151889579312</v>
-      </c>
-      <c r="S14">
-        <v>0.2580392744913564</v>
-      </c>
-      <c r="T14">
-        <v>0.2580392744913565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.602672</v>
-      </c>
-      <c r="H15">
-        <v>1.808016</v>
-      </c>
-      <c r="I15">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="J15">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.614992666666667</v>
-      </c>
-      <c r="N15">
-        <v>4.844977999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.07054386949514165</v>
-      </c>
-      <c r="P15">
-        <v>0.07054386949514166</v>
-      </c>
-      <c r="Q15">
-        <v>0.9733108604053332</v>
-      </c>
-      <c r="R15">
-        <v>8.759797743647997</v>
-      </c>
-      <c r="S15">
-        <v>0.05629552875704741</v>
-      </c>
-      <c r="T15">
-        <v>0.05629552875704742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.602672</v>
-      </c>
-      <c r="H16">
-        <v>1.808016</v>
-      </c>
-      <c r="I16">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="J16">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.381863666666667</v>
-      </c>
-      <c r="N16">
-        <v>19.145591</v>
-      </c>
-      <c r="O16">
-        <v>0.2787637163494568</v>
-      </c>
-      <c r="P16">
-        <v>0.2787637163494568</v>
-      </c>
-      <c r="Q16">
-        <v>3.846170539717333</v>
-      </c>
-      <c r="R16">
-        <v>34.615534857456</v>
-      </c>
-      <c r="S16">
-        <v>0.222459455690236</v>
-      </c>
-      <c r="T16">
-        <v>0.222459455690236</v>
+        <v>0.2550477839664692</v>
       </c>
     </row>
   </sheetData>
